--- a/target/classes/com/G99Bank/qa/testdata/newcsttestdata.xlsx
+++ b/target/classes/com/G99Bank/qa/testdata/newcsttestdata.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t xml:space="preserve">CustomerName</t>
   </si>
@@ -161,6 +162,87 @@
   </si>
   <si>
     <t xml:space="preserve">anil123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavan sisodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/01/1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhya Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9080706050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavan.s@test01.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavan123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">babu shekhawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9988776655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">babu.s@test01.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">babu123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jagan singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/10/1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7778886661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jagan.s@test01.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jagan123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roja agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/11/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7689051234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roja.a@test01.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roja123</t>
   </si>
 </sst>
 </file>
@@ -172,11 +254,12 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,12 +275,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -268,32 +345,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,17 +457,17 @@
   </sheetPr>
   <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.0765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,4 +686,201 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="pavan.s@test01.com"/>
+    <hyperlink ref="I3" r:id="rId2" display="babu.s@test01.com"/>
+    <hyperlink ref="I4" r:id="rId3" display="jagan.s@test01.com"/>
+    <hyperlink ref="I5" r:id="rId4" display="roja.a@test01.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>